--- a/ac translations/Korean.xlsx
+++ b/ac translations/Korean.xlsx
@@ -1,12 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Korean Translation" sheetId="1" r:id="rId3"/>
+    <sheet name="Korean Translation" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -34,8 +38,45 @@
     <t>Remote for ____ - NOW FREE</t>
   </si>
   <si>
-    <t xml:space="preserve">____ 원격 - 지금 무료
-</t>
+    <r>
+      <t>에어컨 원격 에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>대한  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>지금 무료</t>
+    </r>
   </si>
   <si>
     <t>App Name</t>
@@ -62,10 +103,21 @@
     <t>main_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">No favorites remotes :( </t>
-  </si>
-  <si>
-    <t>즐겨 찾는 리모컨이 없습니다 :(</t>
+    <t>No favorites remotes :( </t>
+  </si>
+  <si>
+    <r>
+      <t>즐겨 찾는 리모컨이 없습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(</t>
+    </r>
   </si>
   <si>
     <t>empty_remotes_list</t>
@@ -98,7 +150,7 @@
     <t>remote_not_working_item</t>
   </si>
   <si>
-    <t xml:space="preserve"> Remote deleted </t>
+    <t> Remote deleted </t>
   </si>
   <si>
     <t>리모컨 삭제됨</t>
@@ -119,16 +171,38 @@
     <t>Remote updated!</t>
   </si>
   <si>
-    <t>리모컨이 업데이트됐습니다!</t>
+    <r>
+      <t>리모컨이 업데이트됐습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>remote_updated</t>
   </si>
   <si>
-    <t xml:space="preserve"> Can\'t delete this item lol </t>
-  </si>
-  <si>
-    <t>이 항목을 삭제할 수 없습니다 ^^</t>
+    <t> Can\'t delete this item lol </t>
+  </si>
+  <si>
+    <r>
+      <t>이 항목을 삭제할 수 없습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>^^</t>
+    </r>
   </si>
   <si>
     <t>remote_could_not_delete</t>
@@ -146,7 +220,18 @@
     <t>Add remote to favorites!</t>
   </si>
   <si>
-    <t>리모컨을 즐겨찾기에 추가하세요!</t>
+    <r>
+      <t>리모컨을 즐겨찾기에 추가하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>favs_input</t>
@@ -155,7 +240,27 @@
     <t>Like: Bedroom</t>
   </si>
   <si>
-    <t>좋아요: 침실</t>
+    <r>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>침실</t>
+    </r>
   </si>
   <si>
     <t>favs_hint</t>
@@ -176,10 +281,66 @@
     <t>favs_prefill</t>
   </si>
   <si>
-    <t xml:space="preserve"> %s added to favorites! </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %s을(를) 즐겨찾기에 추가하세요!</t>
+    <t> %s added to favorites! </t>
+  </si>
+  <si>
+    <r>
+      <t> %s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>즐겨찾기에 추가하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>favs_remote_added</t>
@@ -215,7 +376,18 @@
     <t>© %1$s Frillapps\nAll Rights reserved</t>
   </si>
   <si>
-    <t>© %1$s Frillapps\n모든 권리 보유</t>
+    <r>
+      <t>© %1$s Frillapps\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>모든 권리 보유</t>
+    </r>
   </si>
   <si>
     <t>credits</t>
@@ -224,7 +396,18 @@
     <t>TV Company</t>
   </si>
   <si>
-    <t>TV 회사</t>
+    <r>
+      <t>TV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>회사</t>
+    </r>
   </si>
   <si>
     <t>tv_company</t>
@@ -233,7 +416,18 @@
     <t>TV Model</t>
   </si>
   <si>
-    <t>TV 모델</t>
+    <r>
+      <t>TV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>모델</t>
+    </r>
   </si>
   <si>
     <t>tv_model</t>
@@ -242,7 +436,27 @@
     <t>My TV is Missing</t>
   </si>
   <si>
-    <t>제 TV가 누락되었습니다</t>
+    <r>
+      <t>제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>가 누락되었습니다</t>
+    </r>
   </si>
   <si>
     <t>tv_not_in_list_title</t>
@@ -269,7 +483,36 @@
     <t>Remote model (if known)</t>
   </si>
   <si>
-    <t>리모컨 모델 (아는 경우)</t>
+    <r>
+      <t>리모컨 모델 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>아는 경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>remote_model_if_known</t>
@@ -314,7 +557,18 @@
     <t>Form Sent!</t>
   </si>
   <si>
-    <t>양식이 전송되었습니다!</t>
+    <r>
+      <t>양식이 전송되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>form_successfully_sent</t>
@@ -350,7 +604,36 @@
     <t>My TV isn\'t here :(</t>
   </si>
   <si>
-    <t>제 TV가 여기에 없습니다 :(</t>
+    <r>
+      <t>제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>가 여기에 없습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(</t>
+    </r>
   </si>
   <si>
     <t>no_tv_item</t>
@@ -359,7 +642,27 @@
     <t>Well, OK</t>
   </si>
   <si>
-    <t>네, 알겠습니다</t>
+    <r>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>알겠습니다</t>
+    </r>
   </si>
   <si>
     <t>fine_exit</t>
@@ -377,7 +680,18 @@
     <t>Really? Exit?</t>
   </si>
   <si>
-    <t>정말 나가시겠습니까?</t>
+    <r>
+      <t>정말 나가시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>exit_dialog_title</t>
@@ -401,7 +715,18 @@
     <t>Remote works?</t>
   </si>
   <si>
-    <t>리모컨이 작동하나요?</t>
+    <r>
+      <t>리모컨이 작동하나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>remote_works_question_snackbar</t>
@@ -410,7 +735,18 @@
     <t>It works!</t>
   </si>
   <si>
-    <t>작동합니다!</t>
+    <r>
+      <t>작동합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>remote_works_snackbar_yes</t>
@@ -419,7 +755,18 @@
     <t>No :(</t>
   </si>
   <si>
-    <t>아니요 :(</t>
+    <r>
+      <t>아니요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(</t>
+    </r>
   </si>
   <si>
     <t>remote_works_snackbar_no</t>
@@ -428,7 +775,18 @@
     <t>1. Point your phone directly to your device</t>
   </si>
   <si>
-    <t>1. 휴대전화가 장비를 향하게 두세요</t>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>휴대전화가 장비를 향하게 두세요</t>
+    </r>
   </si>
   <si>
     <t>point_phone_to_tv_instructions_1</t>
@@ -437,7 +795,36 @@
     <t>2. Verify you are trying the correct remote, there might be a different one that works for you</t>
   </si>
   <si>
-    <t>2. 올바른 리모컨을 사용하는지 확인하세요. 다른 리모컨으로 작동할 수도 있습니다</t>
+    <r>
+      <t>2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>올바른 리모컨을 사용하는지 확인하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>다른 리모컨으로 작동할 수도 있습니다</t>
+    </r>
   </si>
   <si>
     <t>point_phone_to_tv_instructions_2</t>
@@ -500,7 +887,18 @@
     <t>External IR</t>
   </si>
   <si>
-    <t>외부 IR</t>
+    <r>
+      <t>외부 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IR</t>
+    </r>
   </si>
   <si>
     <t>external_ir_item</t>
@@ -518,7 +916,18 @@
     <t>My company isn\'t here :((</t>
   </si>
   <si>
-    <t>제 컴퓨터가 여기에 없습니다 :((</t>
+    <r>
+      <t>제 컴퓨터가 여기에 없습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:((</t>
+    </r>
   </si>
   <si>
     <t>blank_company</t>
@@ -536,7 +945,18 @@
     <t>Ooops!</t>
   </si>
   <si>
-    <t>이런!</t>
+    <r>
+      <t>이런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>oops</t>
@@ -545,7 +965,18 @@
     <t>Are you sure your remote doesn\'t work?</t>
   </si>
   <si>
-    <t>정말 리모컨이 작동하지 않습니까?</t>
+    <r>
+      <t>정말 리모컨이 작동하지 않습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>phone_not_work_ask</t>
@@ -554,7 +985,18 @@
     <t>Have you tried pointing the phone directly to your device?</t>
   </si>
   <si>
-    <t>휴대전화가 장치를 향하게 두셨습니까?</t>
+    <r>
+      <t>휴대전화가 장치를 향하게 두셨습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>phone_not_work_ask_again</t>
@@ -593,7 +1035,27 @@
     <t>heyyyyyyyyyy\nLet\'s prepare some goodies for the first time…</t>
   </si>
   <si>
-    <t>일단\n좋은 것을 준비해봅시다…</t>
+    <r>
+      <t>일단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>좋은 것을 준비해봅시다…</t>
+    </r>
   </si>
   <si>
     <t>first_run_msg</t>
@@ -611,7 +1073,18 @@
     <t>Remote name already taken!</t>
   </si>
   <si>
-    <t>리모컨 이름을 이미 사용 중입니다!</t>
+    <r>
+      <t>리모컨 이름을 이미 사용 중입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>remote_name_taken</t>
@@ -626,19 +1099,50 @@
     <t>vibrate_on_click</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yey vibrate on </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 네, 진동을 켭니다</t>
+    <t> Yey vibrate on </t>
+  </si>
+  <si>
+    <r>
+      <t> 네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>진동을 켭니다</t>
+    </r>
   </si>
   <si>
     <t>vibrate_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vibrate off :(( </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 진동 끄기 :((</t>
+    <t> Vibrate off :(( </t>
+  </si>
+  <si>
+    <r>
+      <t> 진동 끄기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:((</t>
+    </r>
   </si>
   <si>
     <t>vibrate_disabled</t>
@@ -647,7 +1151,27 @@
     <t>Give us a few moments…\nWe\'re trying to find the right settings…</t>
   </si>
   <si>
-    <t>잠시만 기다려주세요...\n우리는 올바른 설정을 찾고 있습니다…</t>
+    <r>
+      <t>잠시만 기다려주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>우리는 올바른 설정을 찾고 있습니다…</t>
+    </r>
   </si>
   <si>
     <t>calibrating_msg</t>
@@ -656,7 +1180,45 @@
     <t>Okay! we tried a few things.\nTry again now</t>
   </si>
   <si>
-    <t>네! 저희가 몇 가지를 시도했습니다.\n지금 다시 시도해보세요</t>
+    <r>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>저희가 몇 가지를 시도했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>지금 다시 시도해보세요</t>
+    </r>
   </si>
   <si>
     <t>calibrating_end_msg</t>
@@ -731,7 +1293,27 @@
     <t>You can get our official adapter from Aliexpress here</t>
   </si>
   <si>
-    <t>이곳 Aliexpress에서 공식 어댑터를 받으실 수 있습니다</t>
+    <r>
+      <t>이곳 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aliexpress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서 공식 어댑터를 받으실 수 있습니다</t>
+    </r>
   </si>
   <si>
     <t>noIROption1SecondaryExplanation</t>
@@ -740,7 +1322,99 @@
     <t>Or you can get any other adapter like that, most should work just fine.\nYou can find them on eBay or Aliexpress, just search for \"infrared headphones jack adapter\"</t>
   </si>
   <si>
-    <t>또는 이와 같은 다른 어댑터를 받으실 수 있습니다. 대부분이 잘 작동해야 합니다.\neBay 또는 Aliexpress에서 찾으실 수 있습니다. \"적외선 헤드폰 잭 어댑터\"를 검색하세요</t>
+    <r>
+      <t>또는 이와 같은 다른 어댑터를 받으실 수 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>대부분이 잘 작동해야 합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.\neBay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aliexpress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서 찾으실 수 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. \"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>적외선 헤드폰 잭 어댑터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>를 검색하세요</t>
+    </r>
   </si>
   <si>
     <t>noIROption1ThirdExplanation</t>
@@ -749,7 +1423,45 @@
     <t>Instead of using the small adapter from option 1, you could make one yourself</t>
   </si>
   <si>
-    <t>옵션 1에서 작은 어댑터를 사용하는 것 대신에, 나만의 것을 만드실 수 있습니다</t>
+    <r>
+      <t>옵션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서 작은 어댑터를 사용하는 것 대신에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>나만의 것을 만드실 수 있습니다</t>
+    </r>
   </si>
   <si>
     <t>noIROption2PrimaryExplanation</t>
@@ -758,7 +1470,18 @@
     <t>How to vid:</t>
   </si>
   <si>
-    <t>영상 인식 방법:</t>
+    <r>
+      <t>영상 인식 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
   <si>
     <t>noIROption2VideoHeader</t>
@@ -767,7 +1490,45 @@
     <t>Notice: this option only works for 92% of all tested phones</t>
   </si>
   <si>
-    <t>참조: 이 옵션은 모든 실험된 휴대전화 중 92%에서만 작동합니다</t>
+    <r>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 옵션은 모든 실험된 휴대전화 중 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>92%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서만 작동합니다</t>
+    </r>
   </si>
   <si>
     <t>footerReservations</t>
@@ -776,7 +1537,27 @@
     <t>Sorry we couldn\'t make it work</t>
   </si>
   <si>
-    <t>죄송합니다, 작동시킬 수 없었습니다</t>
+    <r>
+      <t>죄송합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>작동시킬 수 없었습니다</t>
+    </r>
   </si>
   <si>
     <t>noIrHasEmitterPrimary</t>
@@ -785,7 +1566,45 @@
     <t>But don\'t worry, you could try the below options (though we can\'t guarantee success)</t>
   </si>
   <si>
-    <t>하지만 걱정마세요. (성공을 보장하지는 않지만) 아래의 옵션을 시도해보실 수 있습니다</t>
+    <r>
+      <t>하지만 걱정마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>성공을 보장하지는 않지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>아래의 옵션을 시도해보실 수 있습니다</t>
+    </r>
   </si>
   <si>
     <t>noIrHasEmitterSecondary</t>
@@ -803,7 +1622,45 @@
     <t>Option 1 - Use External IR</t>
   </si>
   <si>
-    <t>옵션 1 - 외부 IR 사용하기</t>
+    <r>
+      <t>옵션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>외부 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용하기</t>
+    </r>
   </si>
   <si>
     <t>option1_title</t>
@@ -812,7 +1669,45 @@
     <t>Option 2 - Use External IR</t>
   </si>
   <si>
-    <t>옵션 2 - 외부 IR 사용하기</t>
+    <r>
+      <t>옵션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>외부 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용하기</t>
+    </r>
   </si>
   <si>
     <t>option2_title</t>
@@ -839,7 +1734,27 @@
     <t>Cable/Sat</t>
   </si>
   <si>
-    <t>케이블/위성</t>
+    <r>
+      <t>케이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>위성</t>
+    </r>
   </si>
   <si>
     <t>cable_category_name</t>
@@ -866,7 +1781,27 @@
     <t>No Internet :(\nWe need some internet to download remotes</t>
   </si>
   <si>
-    <t>인터넷이 없습니다 :(\n리모컨을 다운로드하려면 인터넷이 필요합니다</t>
+    <r>
+      <t>인터넷이 없습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>리모컨을 다운로드하려면 인터넷이 필요합니다</t>
+    </r>
   </si>
   <si>
     <t>no_internet_dialog_title</t>
@@ -887,7 +1822,63 @@
     <t>But don\'t worry, you have 2 options for adding this ability to your phone</t>
   </si>
   <si>
-    <t>하지만, 걱정하지 마세요. 이 기능을 휴대전화에 추가하려면 2개의 옵션이 필요합니다</t>
+    <r>
+      <t>하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>걱정하지 마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 기능을 휴대전화에 추가하려면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>개의 옵션이 필요합니다</t>
+    </r>
   </si>
   <si>
     <t>noIrNoEmitterSecondary</t>
@@ -932,7 +1923,18 @@
     <t>Option 1</t>
   </si>
   <si>
-    <t>옵션 1</t>
+    <r>
+      <t>옵션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>option_1_btn</t>
@@ -941,7 +1943,18 @@
     <t>Option 2</t>
   </si>
   <si>
-    <t>옵션 2</t>
+    <r>
+      <t>옵션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>option_2_btn</t>
@@ -950,7 +1963,18 @@
     <t>My remote is missing :((</t>
   </si>
   <si>
-    <t>제 리모컨이 누락되었습니다 :((</t>
+    <r>
+      <t>제 리모컨이 누락되었습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:((</t>
+    </r>
   </si>
   <si>
     <t>blank_remote_txt</t>
@@ -959,7 +1983,36 @@
     <t>Hello :)\nLoading some stuff for you…</t>
   </si>
   <si>
-    <t>안녕하세요 :)\n몇 가지를 로딩 중입니다...</t>
+    <r>
+      <t>안녕하세요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:)\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>몇 가지를 로딩 중입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
   </si>
   <si>
     <t>loading_dialog_txt</t>
@@ -968,7 +2021,36 @@
     <t>Yey! we got some new updates for you!</t>
   </si>
   <si>
-    <t>네! 일부 새로운 업데이트가 있습니다!</t>
+    <r>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>일부 새로운 업데이트가 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>update_dialog_txt_1</t>
@@ -1013,7 +2095,18 @@
     <t>Are you enjoying our app?</t>
   </si>
   <si>
-    <t>우리 앱을 즐기고 계시나요?</t>
+    <r>
+      <t>우리 앱을 즐기고 계시나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>rate_us_content_1</t>
@@ -1037,7 +2130,18 @@
     <t>So maybe show us your love?</t>
   </si>
   <si>
-    <t>그러면 귀하의 사랑을 보여주시겠습니까?</t>
+    <r>
+      <t>그러면 귀하의 사랑을 보여주시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <t>rate_us_content_2</t>
@@ -1058,7 +2162,27 @@
     <t>Something went wrong\\nTry restarting</t>
   </si>
   <si>
-    <t>무언가 잘못되었습니다\\n다시 시도해주세요</t>
+    <r>
+      <t>무언가 잘못되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>다시 시도해주세요</t>
+    </r>
   </si>
   <si>
     <t>clear_app_cache_dialog_title</t>
@@ -1088,7 +2212,27 @@
     <t>No connection.\nWaiting for internet…</t>
   </si>
   <si>
-    <t>인터넷 연결이 없습니다.\n인터넷을 기다려주세요…</t>
+    <r>
+      <t>인터넷 연결이 없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>인터넷을 기다려주세요…</t>
+    </r>
   </si>
   <si>
     <t>no_network</t>
@@ -1112,10 +2256,21 @@
     <t>select_volume_device</t>
   </si>
   <si>
-    <t xml:space="preserve">You chose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">선택한 것: </t>
+    <t>You chose </t>
+  </si>
+  <si>
+    <r>
+      <t>선택한 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
   </si>
   <si>
     <t>chosen_tv</t>
@@ -1193,40 +2348,336 @@
     <t>This is the app description</t>
   </si>
   <si>
-    <t>FREE edition for a limited time
-**DISCLAIMER
-This app is not the official ____ app. 
-It was designed with care to try and bring ____ users an overall better experience
-**** IMPORTANT ****
-This app needs your phone to have Infrared sensor
-Not sure what this means? you can try downloading the app and see if it works
-Your remote is missing? Just ask us for it from the app
-Features:
-* Control your ____ TV from your phone
-* VOLUME control your TV (up/down/mute/av)
-* SAVE your favorite remotes for easy access
-* NO installation, just click and play
-* AMAZING design with cool &amp; easy interface
-Have questions? remote isn't working?
-Please feel free to contact us on _____
-TV remote control for your click play set top case</t>
-  </si>
-  <si>
-    <t>한정시간 제공하는 무료 에디션
-**면책조항
-이 앱은 공식 ____앱이 아닙니다.
-이는 주의 깊게 설계되었으며 ____ 사용자에게 전반적으로 더 나은 경험을 제공합니다.
-**** 중요 ****
-휴대전화에 적외선 센서가 있어야 이 앱을 사용할 수 있습니다.
-무슨 의미인지 이해하실 수 없나요? 이 앱을 다운로드하시고 어떻게 작동하는지 보실 수 있습니다.
-리모컨이 누락되었나요? 앱에서 저희에게 해당 리모컨을 요청하세요.
-특징:
-* 쉬운 액세스를 위해 즐겨찾기 리모컨을 저장하세요
-* 설치 과정이 필요 없습니다. 클릭하고 바로 사용하세요
-* 멋지고 쉬운 인터페이스를 갖춘 놀라운 디자인
-질문이 있으신가요? 리모컨이 작동하지 않나요?
-____에서 언제든지 문의해주세요
-클릭 플레이 세트 상부 케이스를 위한 TV 리모컨</t>
+    <t>FREE edition for a limited time  **DISCLAIMER This app is not the official ____ app.  It was designed with care to try and bring ____ users an overall better experience  **** IMPORTANT **** This app needs your phone to have Infrared sensor Not sure what this means? you can try downloading the app and see if it works  Your remote is missing? Just ask us for it from the app Features: * Control your ____ TV from your phone * VOLUME control your TV (up/down/mute/av) * SAVE your favorite remotes for easy access * NO installation, just click and play * AMAZING design with cool &amp; easy interface  Have questions? remote isn't working? Please feel free to contact us on _____ TV remote control for your click play set top case</t>
+  </si>
+  <si>
+    <r>
+      <t>한정시간 제공하는 무료 에디션  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>면책조항 이 앱은 공식 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>앱이 아닙니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>이는 주의 깊게 설계되었으며 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용자에게 전반적으로 더 나은 경험을 제공합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  **** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>중요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>**** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>휴대전화에 적외선 센서가 있어야 이 앱을 사용할 수 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>무슨 의미인지 이해하실 수 없나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 앱을 다운로드하시고 어떻게 작동하는지 보실 수 있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>리모컨이 누락되었나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>앱에서 저희에게 해당 리모컨을 요청하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>특징</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>쉬운 액세스를 위해 즐겨찾기 리모컨을 저장하세요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>설치 과정이 필요 없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>클릭하고 바로 사용하세요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>멋지고 쉬운 인터페이스를 갖춘 놀라운 디자인  질문이 있으신가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>리모컨이 작동하지 않나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? ____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서 언제든지 문의해주세요 클릭 플레이 세트 상부 케이스를 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>리모컨</t>
+    </r>
   </si>
   <si>
     <t>App Description</t>
@@ -1235,35 +2686,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="9">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="22.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1271,134 +2749,199 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="9">
-    <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="65.0"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="58.9148936170213"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.60851063829787"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1412,1619 +2955,1625 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="9"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="9"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="9"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="F19" t="s">
+      <c r="C19" s="11"/>
+      <c r="F19" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="9"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
       <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="9"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
       <c r="B22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="9"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
       <c r="B23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="9"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="9"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="9"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="9"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="9"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="9"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="9"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="9"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="9"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="9"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="9"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="9"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="9"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="9"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="9"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10"/>
       <c r="B40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
       <c r="B41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="9"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
       <c r="B42" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="9"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
       <c r="B43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="9"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
       <c r="B44" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="9"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
       <c r="B45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="9"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="9"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10"/>
       <c r="B48" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="9"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10"/>
       <c r="B49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="9"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
       <c r="B50" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="9"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10"/>
       <c r="B51" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="9"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10"/>
       <c r="B52" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10"/>
       <c r="B53" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="9"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10"/>
       <c r="B54" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10"/>
       <c r="B55" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="0" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="9"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10"/>
       <c r="B56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="9"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10"/>
       <c r="B57" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="9"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10"/>
       <c r="B58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="9"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10"/>
       <c r="B59" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="9"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10"/>
       <c r="B60" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="9"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10"/>
       <c r="B61" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="9"/>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10"/>
       <c r="B62" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="9"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10"/>
       <c r="B63" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="9"/>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10"/>
       <c r="B64" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="9"/>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10"/>
       <c r="B65" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="9"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10"/>
       <c r="B66" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="0" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="9"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10"/>
       <c r="B67" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10"/>
       <c r="B68" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="9"/>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10"/>
       <c r="B69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="9"/>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10"/>
       <c r="B70" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="9"/>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10"/>
       <c r="B71" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="9"/>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10"/>
       <c r="B72" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="9"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10"/>
       <c r="B73" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="9"/>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10"/>
       <c r="B74" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="9"/>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10"/>
       <c r="B75" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="9"/>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10"/>
       <c r="B76" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9"/>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10"/>
       <c r="B77" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="0" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="9"/>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10"/>
       <c r="B78" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="9"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10"/>
       <c r="B79" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="9"/>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10"/>
       <c r="B80" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="9"/>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10"/>
       <c r="B81" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="0" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="9"/>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10"/>
       <c r="B82" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="0" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="9"/>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10"/>
       <c r="B83" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="9"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10"/>
       <c r="B84" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="9"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10"/>
       <c r="B85" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="0" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="9"/>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10"/>
       <c r="B86" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="9"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10"/>
       <c r="B87" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="0" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="9"/>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10"/>
       <c r="B88" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="9"/>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10"/>
       <c r="B89" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="9"/>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10"/>
       <c r="B90" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="9"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10"/>
       <c r="B91" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="0" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="9"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10"/>
       <c r="B92" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="9"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10"/>
       <c r="B93" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="0" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="9"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10"/>
       <c r="B94" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="9"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10"/>
       <c r="B95" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="0" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="9"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10"/>
       <c r="B96" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="9"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10"/>
       <c r="B97" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="0" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="9"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10"/>
       <c r="B98" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="0" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="9"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10"/>
       <c r="B99" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="9"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10"/>
       <c r="B100" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="0" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="9"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10"/>
       <c r="B101" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="0" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="9"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10"/>
       <c r="B102" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="9"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10"/>
       <c r="B103" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="0" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="9"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10"/>
       <c r="B104" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="0" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="9"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="10"/>
       <c r="B105" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="9"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="10"/>
       <c r="B106" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="0" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="9"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10"/>
       <c r="B107" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="0" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="9"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="10"/>
       <c r="B108" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="0" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="9"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10"/>
       <c r="B109" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="0" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="9"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="10"/>
       <c r="B110" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="0" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="9"/>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10"/>
       <c r="B111" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="0" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="9"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="10"/>
       <c r="B112" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="0" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="9"/>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10"/>
       <c r="B113" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="0" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="9"/>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10"/>
       <c r="B114" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="0" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="9"/>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10"/>
       <c r="B115" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="9"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="10"/>
       <c r="B116" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="0" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="9"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10"/>
       <c r="B117" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="9"/>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10"/>
       <c r="B118" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="0" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="9"/>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10"/>
       <c r="B119" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="9"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10"/>
       <c r="B120" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="0" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="9"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10"/>
       <c r="B121" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="9"/>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10"/>
       <c r="B122" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="0" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="9"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10"/>
       <c r="B123" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="0" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="9"/>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="10"/>
       <c r="B124" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="9"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="10"/>
       <c r="B125" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="0" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="9"/>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10"/>
       <c r="B126" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="0" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="9"/>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10"/>
       <c r="B127" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="0" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="9"/>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10"/>
       <c r="B128" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="0" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="9"/>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10"/>
       <c r="B129" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="9"/>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="10"/>
       <c r="B130" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="9"/>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10"/>
       <c r="B131" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="9"/>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10"/>
       <c r="B132" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="9"/>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10"/>
       <c r="B133" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="9"/>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10"/>
       <c r="B134" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="9"/>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="10"/>
       <c r="B135" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="0" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="9"/>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10"/>
       <c r="B136" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="11" t="s">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="0" t="s">
         <v>395</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>